--- a/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,7 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
     </r>
@@ -763,14 +764,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${na.openingdate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.enddate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -827,6 +820,14 @@
   </si>
   <si>
     <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="30"/>
   </si>
 </sst>
 </file>
@@ -934,6 +935,7 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -982,19 +984,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1656,7 +1662,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1930,116 +1936,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2047,8 +1975,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2062,6 +1999,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2073,6 +2031,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2106,188 +2067,203 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2317,6 +2293,36 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2346,6 +2352,10 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2654,8 +2664,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2681,7 +2691,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>96</v>
@@ -2764,7 +2774,7 @@
         <v>123</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>96</v>
@@ -2828,8 +2838,8 @@
       <c r="A14" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>128</v>
+      <c r="B14" s="248" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="80" t="s">
         <v>96</v>
@@ -2841,8 +2851,8 @@
       <c r="A15" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>129</v>
+      <c r="B15" s="248" t="s">
+        <v>144</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>96</v>
@@ -2855,7 +2865,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>96</v>
@@ -2868,7 +2878,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>96</v>
@@ -2878,10 +2888,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>96</v>
@@ -2894,7 +2904,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>95</v>
@@ -2907,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>96</v>
@@ -2939,10 +2949,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>96</v>
@@ -2952,10 +2962,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>96</v>
@@ -2965,7 +2975,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="73" t="str">
         <f>"GF-"&amp;B12</f>
@@ -2982,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
@@ -2992,7 +3002,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="104"/>
@@ -3083,34 +3093,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="173" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3124,203 +3134,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="str">
+      <c r="C5" s="169"/>
+      <c r="D5" s="170" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="132"/>
+      <c r="D6" s="176" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="178"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="175" t="str">
+      <c r="C7" s="132"/>
+      <c r="D7" s="111" t="str">
         <f>記入!B14</f>
-        <v>${na.openingdate}</v>
-      </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+        <v>${statime[0]}</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="177" t="str">
+      <c r="H7" s="113" t="str">
         <f>記入!B15</f>
-        <v>${na.enddate}</v>
-      </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118" t="str">
+      <c r="C8" s="132"/>
+      <c r="D8" s="120" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="str">
+      <c r="C9" s="126"/>
+      <c r="D9" s="154" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="162"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3334,91 +3344,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="138" t="str">
+      <c r="C21" s="126"/>
+      <c r="D21" s="163" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="149" t="str">
+      <c r="C27" s="132"/>
+      <c r="D27" s="133" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="136"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3432,112 +3442,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="121" t="s">
+      <c r="C29" s="138"/>
+      <c r="D29" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="118" t="str">
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="120" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="127"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="118" t="s">
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="155"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="161" t="s">
+      <c r="B31" s="140"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118" t="str">
+      <c r="H31" s="119"/>
+      <c r="I31" s="120" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="155"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="121" t="s">
+      <c r="B32" s="140"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="170" t="str">
+      <c r="H32" s="119"/>
+      <c r="I32" s="153" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="121" t="s">
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="119"/>
+      <c r="I33" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="123"/>
+      <c r="D35" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3585,44 +3595,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="148" t="s">
+      <c r="F45" s="126"/>
+      <c r="G45" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="126"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="128"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="130"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="172"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="173"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="174"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="167"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="169"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="110"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3630,16 +3640,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3654,25 +3673,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3716,28 +3726,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3784,12 +3794,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3810,12 +3820,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3865,160 +3875,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="187"/>
+      <c r="D13" s="188" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="192"/>
+      <c r="D14" s="193" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="179" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4060,14 +4070,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
+      <c r="F27" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="179" t="str">
+      <c r="G27" s="216" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="179"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4075,11 +4085,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4087,7 +4097,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
@@ -4101,9 +4111,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4111,9 +4121,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4121,9 +4131,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4173,21 +4183,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4204,11 +4204,21 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4223,8 +4233,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4243,28 +4253,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4311,12 +4321,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4337,12 +4347,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4391,160 +4401,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="187"/>
+      <c r="D13" s="188" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="192"/>
+      <c r="D14" s="193" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="192"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="192"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="179" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4586,14 +4596,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
+      <c r="F27" s="216" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="179" t="str">
+      <c r="G27" s="216" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="179"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4601,11 +4611,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="192"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4613,7 +4623,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
@@ -4627,9 +4637,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4637,9 +4647,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4647,9 +4657,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4699,26 +4709,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4735,6 +4725,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4771,55 +4781,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="219"/>
+      <c r="D3" s="229"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="221"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="222" t="str">
+      <c r="C5" s="232" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="223"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="225"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="236" t="str">
+      <c r="C7" s="226" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="237"/>
+      <c r="D7" s="227"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="237"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="220" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="231"/>
+      <c r="D9" s="221"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4835,34 +4845,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="234" t="str">
+      <c r="C12" s="224" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="225"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="226" t="str">
+      <c r="C13" s="236" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="227"/>
+      <c r="D13" s="237"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4888,16 +4898,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>住　所</t>
-  </si>
-  <si>
-    <t>　中国辽宁省大连市软件园东路23号</t>
-  </si>
-  <si>
-    <t>　15号楼401室</t>
   </si>
   <si>
     <t>　松下电器软件开发(大连) 有限公司</t>
@@ -828,6 +822,18 @@
   <si>
     <t>${statime[1]}</t>
     <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1915,6 +1921,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1936,57 +1946,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,27 +2078,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2031,9 +2089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2067,86 +2122,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2154,12 +2242,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2184,21 +2266,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2208,62 +2275,35 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2293,36 +2333,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2352,10 +2362,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2664,7 +2670,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -2677,335 +2683,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="100"/>
+      <c r="A1" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="D1" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:5" s="72" customFormat="1">
       <c r="A4" s="93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:5" s="72" customFormat="1">
       <c r="A6" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:5" s="72" customFormat="1">
       <c r="A7" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="1:5" s="72" customFormat="1">
       <c r="A8" s="93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="248" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="248" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="88"/>
       <c r="C22" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="73" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+        <v>139</v>
+      </c>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
       <c r="A27" s="94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+        <v>140</v>
+      </c>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
     </row>
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
@@ -3093,34 +3099,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="168" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="B1" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="173" t="str">
+      <c r="C3" s="112" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3134,203 +3140,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170" t="str">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="176" t="str">
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="178"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="111" t="str">
+      <c r="C7" s="115"/>
+      <c r="D7" s="176" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="113" t="str">
+        <v>56</v>
+      </c>
+      <c r="H7" s="178" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="120" t="str">
+      <c r="C8" s="115"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="167"/>
+      <c r="E8" s="120"/>
       <c r="F8" s="121"/>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="154" t="str">
+      <c r="C9" s="125"/>
+      <c r="D9" s="130" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="156"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3344,91 +3350,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="163" t="str">
+      <c r="C21" s="125"/>
+      <c r="D21" s="139" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="127"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="127"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133" t="str">
+      <c r="B27" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="150" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3442,83 +3448,83 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="120" t="str">
+      <c r="C29" s="154"/>
+      <c r="D29" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
       <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="127"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="118" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="120" t="s">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="140"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="146" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="118" t="s">
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120" t="str">
+      <c r="H31" s="123"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
       <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="140"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="118" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="153" t="str">
+      <c r="H32" s="123"/>
+      <c r="I32" s="171" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
       <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="118" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="121"/>
@@ -3526,28 +3532,28 @@
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="122" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="123"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3595,44 +3601,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="125" t="s">
+      <c r="E45" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="125" t="s">
+      <c r="F45" s="125"/>
+      <c r="G45" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="126"/>
+      <c r="H45" s="125"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="128"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="129"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="130"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="173"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="108"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="175"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="170"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3640,25 +3646,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3673,16 +3670,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3708,7 +3714,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3726,28 +3734,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3756,7 +3764,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="44" t="str">
         <f>記入!B16</f>
@@ -3794,12 +3802,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="F6" s="210" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3807,7 +3815,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3820,12 +3828,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="F8" s="210" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3875,165 +3883,165 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="192"/>
+      <c r="B15" s="188" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="199" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="E15" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="E16" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="192"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
@@ -4046,7 +4054,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
@@ -4070,14 +4078,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="216" t="str">
+      <c r="F27" s="180" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4085,11 +4093,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="192"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4097,12 +4105,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -4111,9 +4119,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4121,9 +4129,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4131,9 +4139,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4168,7 +4176,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -4183,11 +4191,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4204,21 +4222,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4233,8 +4241,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4253,28 +4261,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="183" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="B1" s="208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4283,7 +4291,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="44" t="str">
         <f>記入!B16</f>
@@ -4321,12 +4329,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="F6" s="210" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4334,7 +4342,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4347,12 +4355,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="F8" s="210" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4401,165 +4409,165 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="192"/>
+      <c r="B15" s="188" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="199" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="E15" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="E16" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="192"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
@@ -4572,7 +4580,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
@@ -4596,14 +4604,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="216" t="str">
+      <c r="F27" s="180" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4611,11 +4619,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="192"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4623,12 +4631,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -4637,9 +4645,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4647,9 +4655,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4657,9 +4665,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4694,7 +4702,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -4709,6 +4717,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4725,26 +4753,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4781,61 +4789,61 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="229"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="222"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="232" t="str">
+      <c r="C5" s="223" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="224"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="226" t="str">
+      <c r="C7" s="237" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="227"/>
+      <c r="D7" s="238"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="227"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="220" t="str">
+      <c r="C9" s="231" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="221"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
       <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>記入!B17</f>
@@ -4845,34 +4853,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="222" t="s">
+      <c r="C11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="223"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="224" t="str">
+      <c r="C12" s="235" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="236" t="str">
+      <c r="C13" s="227" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="237"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4898,16 +4906,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4941,99 +4949,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="243" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
+      <c r="B1" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="243" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
+      <c r="B2" s="244" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="246" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="247" t="str">
+      <c r="B4" s="247" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
+      <c r="B5" s="246" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="81" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="48"/>
-      <c r="G5" s="245" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="245"/>
+      <c r="G5" s="246" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="246"/>
       <c r="I5" s="81" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="245" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
+      <c r="B6" s="246" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="245" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="245"/>
+      <c r="G6" s="246" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="246"/>
       <c r="I6" s="82" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="238" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="239" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="83" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -5045,50 +5053,50 @@
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
       <c r="B8" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
       <c r="B9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="E9" s="58" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
@@ -5098,38 +5106,38 @@
       <c r="E10" s="62"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="240"/>
+      <c r="H10" s="240" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="241"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="241" t="str">
+      <c r="D11" s="242" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="84" t="e">
@@ -5141,14 +5149,14 @@
       <c r="B13" s="48"/>
       <c r="C13" s="66"/>
       <c r="D13" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="84">
@@ -5199,7 +5207,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="66"/>
       <c r="D18" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="48"/>
@@ -5214,7 +5222,7 @@
       <c r="E19" s="70"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="86" t="str">
@@ -5264,7 +5272,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -828,11 +828,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>　黄浦路900号30号楼</t>
+    <t xml:space="preserve">  中国遼寧省大連市高新技術産業園区</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  中国遼寧省大連市高新技術産業園区</t>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1946,116 +1946,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2063,8 +1985,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2078,6 +2009,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2089,6 +2041,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2122,188 +2077,203 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2332,6 +2302,36 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3099,34 +3099,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112" t="str">
+      <c r="C3" s="174" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3140,203 +3140,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109" t="str">
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116" t="str">
+      <c r="C6" s="133"/>
+      <c r="D6" s="177" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="176" t="str">
+      <c r="C7" s="133"/>
+      <c r="D7" s="112" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="178" t="str">
+      <c r="H7" s="114" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="133"/>
+      <c r="D8" s="121" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="120"/>
+      <c r="I8" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="130" t="str">
+      <c r="C9" s="127"/>
+      <c r="D9" s="155" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3350,91 +3350,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="139" t="str">
+      <c r="C21" s="127"/>
+      <c r="D21" s="164" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="144"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="150" t="str">
+      <c r="C27" s="133"/>
+      <c r="D27" s="134" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3448,112 +3448,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="122" t="s">
+      <c r="C29" s="139"/>
+      <c r="D29" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="119" t="str">
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="121" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="126"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="162" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="120"/>
+      <c r="I31" s="121" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="156"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="122" t="s">
+      <c r="B32" s="141"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="171" t="str">
+      <c r="H32" s="120"/>
+      <c r="I32" s="154" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="122" t="s">
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="146" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3601,44 +3601,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="149" t="s">
+      <c r="E45" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="149" t="s">
+      <c r="F45" s="127"/>
+      <c r="G45" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="125"/>
+      <c r="H45" s="127"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="131"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="172"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="173"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="174"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="175"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="109"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="168"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="170"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="111"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3646,16 +3646,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3670,25 +3679,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3714,8 +3714,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3734,28 +3734,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3802,12 +3802,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3815,7 +3815,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3828,12 +3828,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3883,160 +3883,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4078,14 +4078,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4093,11 +4093,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="217"/>
+      <c r="G28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4105,7 +4105,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4119,9 +4119,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4129,9 +4129,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4139,9 +4139,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4191,21 +4191,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4222,11 +4212,21 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4241,8 +4241,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4261,28 +4261,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4329,12 +4329,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="F6" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4342,7 +4342,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4355,12 +4355,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4409,160 +4409,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4604,14 +4604,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4619,11 +4619,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="217"/>
+      <c r="G28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4631,7 +4631,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4645,9 +4645,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4655,9 +4655,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4665,9 +4665,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4717,26 +4717,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4753,6 +4733,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4789,55 +4789,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="230"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="223" t="str">
+      <c r="C5" s="233" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="224"/>
+      <c r="D5" s="234"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="237" t="str">
+      <c r="C7" s="227" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="231" t="str">
+      <c r="C9" s="221" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="222"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4853,34 +4853,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="234"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="235" t="str">
+      <c r="C12" s="225" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="236"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="227" t="str">
+      <c r="C13" s="237" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="228"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4906,16 +4906,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,7 +36,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -941,7 +946,6 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1668,7 +1672,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1946,57 +1950,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2009,27 +2082,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2041,9 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2077,86 +2126,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2164,12 +2246,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,21 +2270,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2218,62 +2279,35 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2303,36 +2337,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2363,12 +2367,18 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2376,12 +2386,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2423,7 +2436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2458,7 +2471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2670,8 +2683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3099,34 +3112,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="174" t="str">
+      <c r="C3" s="112" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3140,203 +3153,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="str">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="173"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="177" t="str">
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="112" t="str">
+      <c r="C7" s="115"/>
+      <c r="D7" s="176" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="114" t="str">
+      <c r="H7" s="178" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="121" t="str">
+      <c r="C8" s="115"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="122"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="155" t="str">
+      <c r="C9" s="125"/>
+      <c r="D9" s="130" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="160"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="160"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="160"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3350,91 +3363,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="164" t="str">
+      <c r="C21" s="125"/>
+      <c r="D21" s="139" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="134" t="str">
+      <c r="C27" s="115"/>
+      <c r="D27" s="150" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3448,112 +3461,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="119" t="s">
+      <c r="C29" s="154"/>
+      <c r="D29" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="121" t="str">
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="122"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="128"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="119" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="121" t="s">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="122"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="141"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="147" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121" t="str">
+      <c r="H31" s="123"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="122"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="141"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="119" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="154" t="str">
+      <c r="H32" s="123"/>
+      <c r="I32" s="171" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="122"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="119" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="122"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="123" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="124"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3601,44 +3614,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="126" t="s">
+      <c r="E45" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="126" t="s">
+      <c r="F45" s="125"/>
+      <c r="G45" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="125"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="128"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="131"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="106"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="107"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="173"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="109"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="175"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="111"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="170"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3646,25 +3659,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3679,16 +3683,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3714,8 +3727,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3734,28 +3747,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3783,16 +3796,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="249" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3802,12 +3815,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3828,12 +3841,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3883,160 +3896,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="180" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4078,14 +4091,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4093,11 +4106,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4105,7 +4118,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4119,9 +4132,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4129,9 +4142,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4139,9 +4152,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4190,12 +4203,23 @@
       <c r="B39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+  <mergeCells count="37">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4212,21 +4236,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4261,28 +4275,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4329,12 +4343,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4355,12 +4369,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4409,160 +4423,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="180" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4604,14 +4618,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4619,11 +4633,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4631,7 +4645,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4645,9 +4659,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4655,9 +4669,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4665,9 +4679,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4717,6 +4731,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4733,26 +4767,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4789,55 +4803,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="230"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="222"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="233" t="str">
+      <c r="C5" s="223" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="234"/>
+      <c r="D5" s="224"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="227" t="str">
+      <c r="C7" s="237" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="228"/>
+      <c r="D7" s="238"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="221" t="str">
+      <c r="C9" s="231" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="222"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4853,34 +4867,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="225" t="str">
+      <c r="C12" s="235" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="237" t="str">
+      <c r="C13" s="227" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="238"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4906,16 +4920,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">CDラベル!$A$1:$F$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">INVOICE!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">出荷判定書!$A$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -443,7 +443,6 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
     </r>
@@ -946,6 +945,8 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -994,23 +995,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1021,7 +1018,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1033,7 +1030,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1950,116 +1947,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2067,8 +1986,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2082,6 +2010,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2093,6 +2042,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2126,188 +2078,209 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2337,6 +2310,36 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2367,18 +2370,12 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2394,7 +2391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2683,7 +2680,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3112,34 +3109,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112" t="str">
+      <c r="C3" s="174" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3153,203 +3150,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109" t="str">
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116" t="str">
+      <c r="C6" s="133"/>
+      <c r="D6" s="177" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="176" t="str">
+      <c r="C7" s="133"/>
+      <c r="D7" s="112" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="178" t="str">
+      <c r="H7" s="114" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="133"/>
+      <c r="D8" s="121" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="120"/>
+      <c r="I8" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="130" t="str">
+      <c r="C9" s="127"/>
+      <c r="D9" s="155" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3363,91 +3360,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="139" t="str">
+      <c r="C21" s="127"/>
+      <c r="D21" s="164" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="144"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="150" t="str">
+      <c r="C27" s="133"/>
+      <c r="D27" s="134" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3461,112 +3458,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="122" t="s">
+      <c r="C29" s="139"/>
+      <c r="D29" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="119" t="str">
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="121" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="126"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="162" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="120"/>
+      <c r="I31" s="121" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="156"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="122" t="s">
+      <c r="B32" s="141"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="171" t="str">
+      <c r="H32" s="120"/>
+      <c r="I32" s="154" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="122" t="s">
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="146" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3614,44 +3611,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="149" t="s">
+      <c r="E45" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="149" t="s">
+      <c r="F45" s="127"/>
+      <c r="G45" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="125"/>
+      <c r="H45" s="127"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="131"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="172"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="173"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="174"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="175"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="109"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="168"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="170"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="111"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3659,16 +3656,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3683,25 +3689,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3747,28 +3744,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3796,16 +3793,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="249" t="str">
+      <c r="B5" s="201" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3815,12 +3812,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3841,12 +3838,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3896,160 +3893,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="208"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="206"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="214"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="210"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="210"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="212"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="218"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4091,14 +4088,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="219" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="219"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4106,11 +4103,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="219"/>
+      <c r="G28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4118,7 +4115,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4132,9 +4129,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4142,9 +4139,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4152,9 +4149,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4204,6 +4201,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -4220,27 +4238,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4255,8 +4252,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4275,28 +4272,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4324,16 +4321,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="201" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4343,12 +4340,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4369,12 +4366,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4423,160 +4420,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="208"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="206"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="214"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="210"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="210"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="216"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="212"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="218"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4618,14 +4615,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="219" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="219"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4633,11 +4630,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="219"/>
+      <c r="G28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4645,7 +4642,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="219"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4659,9 +4656,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4669,9 +4666,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4679,9 +4676,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4730,27 +4727,8 @@
       <c r="B39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="37">
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4767,6 +4745,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4803,55 +4801,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="232"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="234"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="223" t="str">
+      <c r="C5" s="235" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="224"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="237" t="str">
+      <c r="C7" s="229" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="230"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="230"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="231" t="str">
+      <c r="C9" s="223" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="224"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4867,34 +4865,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="234"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="235" t="str">
+      <c r="C12" s="227" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="236"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="227" t="str">
+      <c r="C13" s="239" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="228"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="222"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4920,16 +4918,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4963,99 +4961,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="str">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="81" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="48"/>
-      <c r="G5" s="246" t="s">
+      <c r="G5" s="248" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="246"/>
+      <c r="H5" s="248"/>
       <c r="I5" s="81" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="49" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="246" t="s">
+      <c r="G6" s="248" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="246"/>
+      <c r="H6" s="248"/>
       <c r="I6" s="82" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="83" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -5120,23 +5118,23 @@
       <c r="E10" s="62"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="240" t="s">
+      <c r="H10" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="241"/>
+      <c r="I10" s="243"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="242" t="str">
+      <c r="D11" s="244" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="65" t="s">

--- a/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_guonei.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="147">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -837,6 +837,10 @@
   </si>
   <si>
     <t>　黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>①記入!B10の開発一式</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1947,57 +1951,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2010,27 +2083,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2042,9 +2094,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2078,86 +2127,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2165,12 +2247,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,21 +2271,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2219,68 +2280,41 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2309,36 +2343,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3109,34 +3113,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="174" t="str">
+      <c r="C3" s="112" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3150,203 +3154,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="str">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="173"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="177" t="str">
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="112" t="str">
+      <c r="C7" s="115"/>
+      <c r="D7" s="176" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="114" t="str">
+      <c r="H7" s="178" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="121" t="str">
+      <c r="C8" s="115"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="122"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="155" t="str">
+      <c r="C9" s="125"/>
+      <c r="D9" s="130" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="160"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="160"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="160"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3360,91 +3364,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="164" t="str">
+      <c r="C21" s="125"/>
+      <c r="D21" s="139" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="134" t="str">
+      <c r="C27" s="115"/>
+      <c r="D27" s="150" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3458,112 +3462,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="119" t="s">
+      <c r="C29" s="154"/>
+      <c r="D29" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="121" t="str">
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="122"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="128"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="119" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="121" t="s">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="122"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="141"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="147" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121" t="str">
+      <c r="H31" s="123"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="122"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="141"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="119" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="154" t="str">
+      <c r="H32" s="123"/>
+      <c r="I32" s="171" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="122"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="119" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="122"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="123" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="124"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3611,44 +3615,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="126" t="s">
+      <c r="E45" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="126" t="s">
+      <c r="F45" s="125"/>
+      <c r="G45" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="125"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="128"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="131"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="106"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="107"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="173"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="109"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="175"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="111"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="170"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3656,25 +3660,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3689,16 +3684,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3724,8 +3728,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3744,28 +3748,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3793,16 +3797,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="201" t="str">
+      <c r="B5" s="219" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3812,12 +3816,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3838,12 +3842,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3893,160 +3897,159 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="208"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="206"/>
-      <c r="C18" s="180" t="str">
-        <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
-        <v>①${na.pjnamejapanese}の開発一式</v>
-      </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="214"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="206"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="210"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="206"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="210"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="206"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="206"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="207"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="212"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4088,14 +4091,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="219" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="219" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="219"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4103,11 +4106,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4115,7 +4118,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="219"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4129,9 +4132,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4139,9 +4142,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4149,9 +4152,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4201,11 +4204,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4222,22 +4236,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4252,8 +4255,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4272,28 +4275,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="97"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4321,16 +4324,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="201" t="str">
+      <c r="B5" s="219" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4340,12 +4343,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4366,12 +4369,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4420,160 +4423,159 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="208"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="206"/>
-      <c r="C18" s="180" t="str">
-        <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
-        <v>①${na.pjnamejapanese}の開発一式</v>
-      </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="214"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="206"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="210"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="206"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="210"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="206"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="206"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="207"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="212"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4615,14 +4617,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="219" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="219" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="219"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4630,11 +4632,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4642,7 +4644,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="219"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4656,9 +4658,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4666,9 +4668,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4676,9 +4678,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4728,11 +4730,26 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:I13"/>
@@ -4745,26 +4762,11 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4801,55 +4803,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="232"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="234"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="235" t="str">
+      <c r="C5" s="225" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="236"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="238"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="229" t="str">
+      <c r="C7" s="239" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="230"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="230"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="223" t="str">
+      <c r="C9" s="233" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="224"/>
+      <c r="D9" s="234"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4865,34 +4867,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="225" t="s">
+      <c r="C11" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="226"/>
+      <c r="D11" s="236"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="227" t="str">
+      <c r="C12" s="237" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="228"/>
+      <c r="D12" s="238"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="239" t="str">
+      <c r="C13" s="229" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="240"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4918,16 +4920,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
